--- a/Bug-reports/Баг-репорт тестовой формы.xlsx
+++ b/Bug-reports/Баг-репорт тестовой формы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logvi\CV\QA-work\Bug-reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F78B60-EAA0-4C32-B966-9ECE848E215B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D578D2-9426-47FA-843E-6A86A6D736A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="240" windowWidth="29040" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,52 +562,6 @@
   <dxfs count="9">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Helvetica Neue"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Helvetica Neue"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -755,25 +709,71 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -790,16 +790,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F5B5CA39-A827-4FD3-987B-AF345F73C79A}" name="Table2" displayName="Table2" ref="A2:H10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F5B5CA39-A827-4FD3-987B-AF345F73C79A}" name="Table2" displayName="Table2" ref="A2:H10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A2:H10" xr:uid="{F5B5CA39-A827-4FD3-987B-AF345F73C79A}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{50B62699-0237-461E-8B83-CBAA4E691F9A}" name="Column1" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{50B62699-0237-461E-8B83-CBAA4E691F9A}" name="Column1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{C73C89B0-7BF9-4349-9CD9-65E58DC08B0F}" name="Ошибка 1"/>
     <tableColumn id="3" xr3:uid="{8E5192E7-3E4D-4FA7-9D77-AF49B9246714}" name="Ошибка 2"/>
-    <tableColumn id="4" xr3:uid="{53C79475-384B-4212-8749-1BED0BD12215}" name="Ошибка 3" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{58768D6C-F711-42A6-8F4A-8CD911830A73}" name="Ошибка 4" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{53C79475-384B-4212-8749-1BED0BD12215}" name="Ошибка 3" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{58768D6C-F711-42A6-8F4A-8CD911830A73}" name="Ошибка 4" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{11B9724E-8FB5-4B86-A05F-C6064C0A7532}" name="Ошибка 5"/>
-    <tableColumn id="7" xr3:uid="{8F2E7C06-4E3B-4B5A-B0D7-8989B465F31E}" name="Ошибка 6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{8F2E7C06-4E3B-4B5A-B0D7-8989B465F31E}" name="Ошибка 6" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{F80B597F-0BE8-486F-A4CE-05B64D129C20}" name="Ошибка 7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1009,9 +1009,7 @@
   </sheetPr>
   <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <cols>
